--- a/datasets/transactions_12032022.xlsx
+++ b/datasets/transactions_12032022.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2599,7 +2599,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>b1dbb5c1-d563-4eaf-8057-6e4fe7f103b7</t>
+          <t>79dc753f-996e-4e58-a2eb-58969a76e778</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>STEAMGAMES.COM 4259522985</t>
+          <t>BING MI</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-14.99</v>
+        <v>-9.6</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ee33223c-4b85-4c8d-b7d2-93ccf0245fd8</t>
+          <t>b1dbb5c1-d563-4eaf-8057-6e4fe7f103b7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2683,12 +2683,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>STEAMGAMES.COM 4259522985</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>-3.99</v>
+        <v>-14.99</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2714,14 +2714,14 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>9790ae45-f819-493d-bae2-4f536483e28f</t>
+          <t>7ac60ca4-698c-4a9d-a7d7-aabd46f0b73c</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SP SAINT JAVELIN</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>-116</v>
+        <v>-28.98</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2775,14 +2775,14 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Donation</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>79dc753f-996e-4e58-a2eb-58969a76e778</t>
+          <t>ee33223c-4b85-4c8d-b7d2-93ccf0245fd8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BING MI</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-9.6</v>
+        <v>-3.99</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -2836,14 +2836,14 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>95c20de1-cf1c-436f-9371-d865958c734a</t>
+          <t>6523f852-0d8e-42b3-841d-e9a02d781a6a</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SQ *THE POUR HOUSE  LLC</t>
+          <t>SQ *STERLING COFFEE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>-9</v>
+        <v>-11.4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2897,14 +2897,14 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>7ac60ca4-698c-4a9d-a7d7-aabd46f0b73c</t>
+          <t>95c20de1-cf1c-436f-9371-d865958c734a</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>SQ *THE POUR HOUSE  LLC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>-28.98</v>
+        <v>-9</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2958,14 +2958,14 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>6523f852-0d8e-42b3-841d-e9a02d781a6a</t>
+          <t>9790ae45-f819-493d-bae2-4f536483e28f</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SQ *STERLING COFFEE</t>
+          <t>SP SAINT JAVELIN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-11.4</v>
+        <v>-116</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Donation</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>03005fc3-960d-4e65-a17c-b2e34a0f25d7</t>
+          <t>5321cd0b-17d8-4842-981e-100a1067263d</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3376,13 +3376,13 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>US TREASURY IRS PAYMENT 0350</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>-168</v>
+        <v>-88.39</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>5321cd0b-17d8-4842-981e-100a1067263d</t>
+          <t>03005fc3-960d-4e65-a17c-b2e34a0f25d7</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3417,13 +3417,13 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>US TREASURY IRS PAYMENT 0350</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>-88.39</v>
+        <v>-168</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>1e6aea4f-695f-4455-90e2-6c76c2267364</t>
+          <t>4c9b1c1d-1308-4fcc-91ef-47567149e125</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ASTRO 206</t>
+          <t>SQ *FARMER AND THE BEAST</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>-77.67</v>
+        <v>-10.8</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3497,14 +3497,14 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2124dfbd-0128-49fe-b301-0ece6780f87b</t>
+          <t>bc98a85e-2061-4b8f-9c65-bd2bd401e2a2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SQ *THE POUR HOUSE  LLC</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-9</v>
+        <v>-1.4</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>bc98a85e-2061-4b8f-9c65-bd2bd401e2a2</t>
+          <t>2124dfbd-0128-49fe-b301-0ece6780f87b</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>SQ *THE POUR HOUSE  LLC</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>-1.4</v>
+        <v>-9</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3741,14 +3741,14 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>4c9b1c1d-1308-4fcc-91ef-47567149e125</t>
+          <t>1e6aea4f-695f-4455-90e2-6c76c2267364</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SQ *FARMER AND THE BEAST</t>
+          <t>ASTRO 206</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>-10.8</v>
+        <v>-77.67</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
+          <t>fc84811e-f254-4b06-9202-15a287b57e0b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3888,17 +3888,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10/24/2022</t>
+          <t>10/23/2022</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>GOODWILL OF PORTLAND</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Gifts &amp; Donations</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>-17.52</v>
+        <v>-15.54</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Clothes</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>43f8a400-6a02-4c8f-ad04-3d37ffa1a20c</t>
+          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4071,17 +4071,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10/23/2022</t>
+          <t>10/24/2022</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>GOODWILL OF PORTLAND</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gifts &amp; Donations</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>-4.5</v>
+        <v>-17.52</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Clothes</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>fc84811e-f254-4b06-9202-15a287b57e0b</t>
+          <t>43f8a400-6a02-4c8f-ad04-3d37ffa1a20c</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>-15.54</v>
+        <v>-4.5</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -4885,37 +4885,45 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>a604d786-82c7-40d0-8248-ef45e1ea82bf</t>
+          <t>6fc32407-ec24-4dc2-8280-2faefb1ead7d</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>11/13/2022</t>
+          <t>10/30/2022</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="2" t="n">
         <v>44862</v>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10/28/2022</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+          <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
       <c r="I77" t="n">
-        <v>1642.9</v>
+        <v>1413.56</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>11/13/2022</t>
+          <t>10/30/2022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -4926,45 +4934,37 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>6fc32407-ec24-4dc2-8280-2faefb1ead7d</t>
+          <t>a604d786-82c7-40d0-8248-ef45e1ea82bf</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10/30/2022</t>
+          <t>11/13/2022</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="2" t="n">
         <v>44862</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10/28/2022</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Payment</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>1413.56</v>
+        <v>1642.9</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>10/30/2022</t>
+          <t>11/13/2022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -4975,7 +4975,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
+          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CHEVRON 0381126</t>
+          <t>SP CRU &amp;amp; DOMAINE</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5012,14 +5012,14 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-49.86</v>
+        <v>-33</v>
       </c>
       <c r="J79" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5027,14 +5027,14 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
+          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5057,12 +5057,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SP CRU &amp;amp; DOMAINE</t>
+          <t>CHEVRON 0381126</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5071,14 +5071,14 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>-33</v>
+        <v>-49.86</v>
       </c>
       <c r="J80" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
@@ -5510,104 +5510,104 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>071657ea-1ea0-4902-9d1e-d33737959e35</t>
+          <t>e17d9af2-1a72-4b20-afb8-0d2e6664c1f5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11/13/2022</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>11/04/2022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>11/04/2022</t>
+        </is>
+      </c>
       <c r="D88" s="2" t="n">
         <v>44865</v>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+          <t>TST* MARCOS CAFE AND ESPR</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I88" t="n">
-        <v>-1413.56</v>
+        <v>-36.6</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>11/13/2022</t>
+          <t>11/04/2022</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>e17d9af2-1a72-4b20-afb8-0d2e6664c1f5</t>
+          <t>071657ea-1ea0-4902-9d1e-d33737959e35</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11/04/2022</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>11/04/2022</t>
-        </is>
-      </c>
+          <t>11/13/2022</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" s="2" t="n">
         <v>44865</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>11/01/2022</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>TST* MARCOS CAFE AND ESPR</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>-36.6</v>
+        <v>-1413.56</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>11/04/2022</t>
+          <t>11/13/2022</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Eating Out</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5673,7 +5673,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>bb294834-7105-400a-bda6-75d39e240779</t>
+          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>GOOGLE *CLOUD 6MBX5P</t>
+          <t>NEW SEASONS MARKET</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-0.12</v>
+        <v>-38.57</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5727,14 +5727,14 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
+          <t>bb294834-7105-400a-bda6-75d39e240779</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>NEW SEASONS MARKET</t>
+          <t>GOOGLE *CLOUD 6MBX5P</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>-38.57</v>
+        <v>-0.12</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>4e1cabbb-4c92-404e-9170-9fb2a463cd08</t>
+          <t>9efd9236-d1c3-4aa1-b271-31a9cc653246</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5972,17 +5972,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>11/06/2022</t>
+          <t>11/04/2022</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>76 - N &amp;amp; S OIL LLC</t>
+          <t>Microsoft*Subscription</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-43.43</v>
+        <v>-1.99</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -6008,14 +6008,14 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>9efd9236-d1c3-4aa1-b271-31a9cc653246</t>
+          <t>4e1cabbb-4c92-404e-9170-9fb2a463cd08</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6033,17 +6033,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>11/04/2022</t>
+          <t>11/06/2022</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Microsoft*Subscription</t>
+          <t>76 - N &amp;amp; S OIL LLC</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>-1.99</v>
+        <v>-43.43</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -6069,14 +6069,14 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>87ec56a3-0a22-44d4-877d-ee02b83ce32f</t>
+          <t>6d4dcca8-0a4e-4f76-a01a-cf5e34276896</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6094,12 +6094,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>11/06/2022</t>
+          <t>11/07/2022</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TST* TWILIGHT ROOM</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6113,7 +6113,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>-55.2</v>
+        <v>-19.5</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11/11/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>6d4dcca8-0a4e-4f76-a01a-cf5e34276896</t>
+          <t>87ec56a3-0a22-44d4-877d-ee02b83ce32f</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>11/07/2022</t>
+          <t>11/06/2022</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>TST* TWILIGHT ROOM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-19.5</v>
+        <v>-55.2</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>a8cbc7d5-c6a0-40bc-b38c-cf4edccd41f5</t>
+          <t>d5f6cd1d-a809-4bf7-a166-b106c6668360</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>-12.65</v>
+        <v>-14.38</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>d5f6cd1d-a809-4bf7-a166-b106c6668360</t>
+          <t>a8cbc7d5-c6a0-40bc-b38c-cf4edccd41f5</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>-14.38</v>
+        <v>-12.65</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>19a39a41-6947-4b99-a173-73737e92c174</t>
+          <t>e60ff3ff-86eb-4802-8ede-e6630b72e583</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>VIOC 090071</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>-6.5</v>
+        <v>-131.27</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -7257,14 +7257,14 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Jeep</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>e60ff3ff-86eb-4802-8ede-e6630b72e583</t>
+          <t>77fb52a0-9227-4a6f-b685-a097c93e6912</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>VIOC 090071</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>-131.27</v>
+        <v>-11.75</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -7318,14 +7318,14 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>77fb52a0-9227-4a6f-b685-a097c93e6912</t>
+          <t>19a39a41-6947-4b99-a173-73737e92c174</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>-11.75</v>
+        <v>-6.5</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
+          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7404,17 +7404,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>11/15/2022</t>
+          <t>11/14/2022</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SHELL OIL 57443148903</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>-48.31</v>
+        <v>-20.6</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>daa5611f-5ee3-4a97-9ef6-05d5f8395863</t>
+          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7526,17 +7526,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11/14/2022</t>
+          <t>11/15/2022</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>SHELL OIL 57443148903</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>-72.93000000000001</v>
+        <v>-48.31</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
+          <t>daa5611f-5ee3-4a97-9ef6-05d5f8395863</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7653,12 +7653,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-20.6</v>
+        <v>-72.93000000000001</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>11/24/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -7862,19 +7862,19 @@
           <t>Sapphire</t>
         </is>
       </c>
-      <c r="L127" t="n">
+      <c r="L127" t="b">
         <v>1</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Dating</t>
+          <t>Celebration</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>b9d4b907-230a-4f37-8877-744752709663</t>
+          <t>f9c10f76-25de-4394-bcb6-d9d5e8d5b157</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7882,36 +7882,28 @@
           <t>11/24/2022</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>11/24/2022</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11/18/2022</t>
+          <t>11/17/2022</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>7-ELEVEN 38495</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>-9.470000000000001</v>
+        <v>783.77</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -7924,18 +7916,14 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Donation</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>a2e5b6ff-605b-474d-958f-93d61cc7f1e8</t>
+          <t>b9d4b907-230a-4f37-8877-744752709663</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7958,12 +7946,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SQ *ALOUETTE</t>
+          <t>7-ELEVEN 38495</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7972,7 +7960,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>-36</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -7989,14 +7977,14 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Donation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>f9c10f76-25de-4394-bcb6-d9d5e8d5b157</t>
+          <t>0f058ef5-d1a1-4663-aefb-5d382d0d3fa6</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8004,28 +7992,36 @@
           <t>11/24/2022</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>11/24/2022</t>
+        </is>
+      </c>
       <c r="D130" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>11/17/2022</t>
+          <t>11/20/2022</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
+          <t>CITY OF PORTLAND DEPT</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>783.77</v>
+        <v>-2.6</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -8038,14 +8034,18 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>0f058ef5-d1a1-4663-aefb-5d382d0d3fa6</t>
+          <t>a2e5b6ff-605b-474d-958f-93d61cc7f1e8</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8063,17 +8063,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>11/20/2022</t>
+          <t>11/18/2022</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>SQ *ALOUETTE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>-2.6</v>
+        <v>-36</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>dfa044db-eb7e-42af-85c6-51736f8e9e5b</t>
+          <t>410e9f85-d8da-4b38-81a0-4187322c9e52</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8521,7 +8521,11 @@
           <t>11/24/2022</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>11/24/2022</t>
+        </is>
+      </c>
       <c r="D139" s="2" t="n">
         <v>44887</v>
       </c>
@@ -8532,21 +8536,21 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FARMERS INS BILLING</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>293.11</v>
+        <v>-76.38</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -8555,13 +8559,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -8627,7 +8635,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>410e9f85-d8da-4b38-81a0-4187322c9e52</t>
+          <t>dfa044db-eb7e-42af-85c6-51736f8e9e5b</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8635,11 +8643,7 @@
           <t>11/24/2022</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>11/24/2022</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" s="2" t="n">
         <v>44887</v>
       </c>
@@ -8650,21 +8654,21 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>FARMERS INS BILLING</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>-76.38</v>
+        <v>293.11</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -8673,22 +8677,18 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>e7727bda-adc6-49c9-9819-5b98499da49e</t>
+          <t>7e983f47-3247-4806-9816-b231295c3ca3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8698,30 +8698,18 @@
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>11/23/2022</t>
-        </is>
-      </c>
+        <v>44888</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>FARMERS INS BILLING</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Bills &amp; Utilities</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>293.11</v>
+        <v>14</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -8730,7 +8718,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8741,48 +8729,68 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>7e983f47-3247-4806-9816-b231295c3ca3</t>
+          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12/03/2022</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>11/29/2022</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>11/29/2022</t>
+        </is>
+      </c>
       <c r="D143" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
+        <v>44889</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>11/25/2022</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Deposit</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+          <t>BING MI</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I143" t="n">
-        <v>14</v>
+        <v>-16.8</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>12/03/2022</t>
+          <t>11/29/2022</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
+          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8800,12 +8808,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>11/25/2022</t>
+          <t>11/27/2022</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>BING MI</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8819,7 +8827,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>-16.8</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -8836,14 +8844,14 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
+          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8861,12 +8869,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>11/27/2022</t>
+          <t>11/25/2022</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8880,7 +8888,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>-8.949999999999999</v>
+        <v>-12.65</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -8904,7 +8912,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
+          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8918,16 +8926,16 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>11/25/2022</t>
+          <t>11/27/2022</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SQ *NW 23RD PINE STATE BI</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8941,7 +8949,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>-12.65</v>
+        <v>-7.67</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -8965,53 +8973,41 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
+          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>11/27/2022</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>-7.67</v>
+        <v>1927.04</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9019,14 +9015,14 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
+          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -9042,16 +9038,28 @@
       <c r="D148" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>11/27/2022</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+          <t>SQ *NW 23RD PINE STATE BI</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I148" t="n">
-        <v>1927.04</v>
+        <v>-7.67</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -9060,22 +9068,22 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Mechanics</t>
-        </is>
-      </c>
-      <c r="L148" t="b">
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
         <v>1</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
+          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -9089,21 +9097,21 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>11/27/2022</t>
+          <t>11/28/2022</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
+          <t>BUDD + FINN</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -9112,7 +9120,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>-7.67</v>
+        <v>-20</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -9121,7 +9129,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -9129,24 +9137,24 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>e3a456af-2cad-4d91-9928-3de00f70dad4</t>
+          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12/03/2022</t>
+          <t>11/29/2022</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12/03/2022</t>
+          <t>11/29/2022</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -9177,7 +9185,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>12/03/2022</t>
+          <t>11/29/2022</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9258,7 +9266,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
+          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9281,12 +9289,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>BUDD + FINN</t>
+          <t>STEPPING STONE CAFE</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -9295,7 +9303,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>-20</v>
+        <v>-44.5</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -9304,7 +9312,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -9312,24 +9320,24 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
+          <t>e3a456af-2cad-4d91-9928-3de00f70dad4</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -9360,7 +9368,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>11/29/2022</t>
+          <t>12/03/2022</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9380,7 +9388,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
+          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9394,7 +9402,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9403,7 +9411,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>STEPPING STONE CAFE</t>
+          <t>SQ *ALBINA PRESS</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -9417,7 +9425,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>-44.5</v>
+        <v>-9.75</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -9441,7 +9449,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
+          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9464,12 +9472,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SQ *FLYING CAT COFFEE CO</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9478,7 +9486,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>-14.09</v>
+        <v>-47.96</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -9495,14 +9503,14 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
+          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9525,7 +9533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>SQ *ALBINA PRESS</t>
+          <t>SQ *FLYING CAT COFFEE CO</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -9539,7 +9547,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>-9.75</v>
+        <v>-14.09</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -9563,7 +9571,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
+          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9586,12 +9594,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>76 - DIVISION STREET F</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9600,7 +9608,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>-47.96</v>
+        <v>-62.95</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -9609,7 +9617,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -9617,14 +9625,14 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
+          <t>5d6d0fce-5c96-4ff2-89a1-9997b1a2ffdd</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9632,60 +9640,48 @@
           <t>12/03/2022</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>11/28/2022</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>691.49</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>12/03/2022</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
-        <v>44892</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>11/28/2022</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>76 - DIVISION STREET F</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>-62.95</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>12/03/2022</t>
-        </is>
-      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>Amazon</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Gasoline</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>5d6d0fce-5c96-4ff2-89a1-9997b1a2ffdd</t>
+          <t>2691e3b1-ea04-4dd0-96e4-2d8f615b32e1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9695,26 +9691,18 @@
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>11/28/2022</t>
-        </is>
-      </c>
+        <v>44894</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Payment</t>
-        </is>
-      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>691.49</v>
+        <v>-691.49</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -9723,54 +9711,13 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L159" t="n">
         <v>0</v>
       </c>
       <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2691e3b1-ea04-4dd0-96e4-2d8f615b32e1</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>12/03/2022</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
-        <v>-691.49</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>12/03/2022</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Mechanics</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
